--- a/Projects 2023/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bill No 1 - BAH 2nd & 23rd Floor (Verified).xlsx
+++ b/Projects 2023/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bill No 1 - BAH 2nd & 23rd Floor (Verified).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06043E-9113-4B19-8205-F1879A7AB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035E900A-04E0-4305-8EE2-5B1729398A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HVAC 22nd Floor'!$A$1:$L$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HVAC 23rd Floor'!$A$1:$L$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Fire 22nd'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Fire 23rd'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'HVAC 22nd Floor'!$1:$4</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="173">
   <si>
     <t>Sr.</t>
   </si>
@@ -2812,18 +2812,30 @@
   <si>
     <t>labour will be calimed in next bill</t>
   </si>
+  <si>
+    <t xml:space="preserve">Received from Total </t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Verified (2nd Bill)</t>
+  </si>
+  <si>
+    <t>BAH Center point 22 &amp; 23 floor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="97" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3520,6 +3532,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4025,9 +4050,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4166,7 +4191,7 @@
     <xf numFmtId="1" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4175,10 +4200,10 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4193,22 +4218,22 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4217,16 +4242,16 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4262,49 +4287,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4313,10 +4338,10 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="84" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="84" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="84" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4349,10 +4374,10 @@
     <xf numFmtId="1" fontId="69" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4361,7 +4386,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="87" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="87" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4404,25 +4429,25 @@
     <xf numFmtId="0" fontId="90" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="90" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="90" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="90" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="90" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="91" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="91" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4440,19 +4465,19 @@
     <xf numFmtId="0" fontId="92" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="92" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="92" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4482,13 +4507,13 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4503,25 +4528,25 @@
     <xf numFmtId="0" fontId="89" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="89" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="89" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="90" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="90" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="90" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="90" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="89" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="89" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4530,8 +4555,17 @@
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="90" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="90" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4632,17 +4666,18 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="98" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4666,16 +4701,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>391518</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>48270</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>172443</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4698,7 +4733,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13563600" y="619125"/>
+          <a:off x="14373225" y="371475"/>
           <a:ext cx="7116168" cy="6601470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4794,6 +4829,50 @@
         <a:xfrm>
           <a:off x="9525" y="19050"/>
           <a:ext cx="1212639" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1382029</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C594EA8-2ECE-FD33-FBBA-9B51A07C8FB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="1266825"/>
+          <a:ext cx="6477904" cy="4220164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6872,10 +6951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCF929F-FB20-4935-9641-63EA9CE81B38}">
-  <dimension ref="A4:E31"/>
+  <dimension ref="A4:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6885,7 +6964,10 @@
     <col min="3" max="3" width="19.83203125" style="130" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="130" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="130" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="124"/>
+    <col min="6" max="9" width="9.33203125" style="124"/>
+    <col min="10" max="10" width="60.5" style="124" customWidth="1"/>
+    <col min="11" max="11" width="28.5" style="124" customWidth="1"/>
+    <col min="12" max="16384" width="9.33203125" style="124"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6928,10 +7010,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="169"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="117"/>
       <c r="D13" s="117"/>
       <c r="E13" s="118"/>
@@ -6941,13 +7023,13 @@
       <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:5" s="113" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
     </row>
     <row r="16" spans="1:5" s="113" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120"/>
@@ -6956,7 +7038,7 @@
       <c r="D16" s="120"/>
       <c r="E16" s="120"/>
     </row>
-    <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="121" t="s">
         <v>143</v>
       </c>
@@ -6973,7 +7055,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="160">
         <v>1</v>
       </c>
@@ -6993,7 +7075,7 @@
         <v>12783665.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="162">
         <v>2</v>
       </c>
@@ -7013,7 +7095,7 @@
         <v>11879380.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="164"/>
       <c r="B20" s="158" t="s">
         <v>146</v>
@@ -7025,14 +7107,14 @@
         <v>24663046</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="166"/>
       <c r="B21" s="167"/>
       <c r="C21" s="167"/>
       <c r="D21" s="167"/>
       <c r="E21" s="168"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="162">
         <v>3</v>
       </c>
@@ -7052,7 +7134,7 @@
         <v>2490678.65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="162">
         <v>4</v>
       </c>
@@ -7072,7 +7154,7 @@
         <v>2127140.25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="164"/>
       <c r="B24" s="158" t="s">
         <v>147</v>
@@ -7084,14 +7166,14 @@
         <v>4617818.9000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="166"/>
       <c r="B25" s="167"/>
       <c r="C25" s="167"/>
       <c r="D25" s="167"/>
       <c r="E25" s="168"/>
     </row>
-    <row r="26" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="121"/>
       <c r="B26" s="122" t="s">
         <v>148</v>
@@ -7109,23 +7191,63 @@
         <v>29280864.899999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E27" s="131"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E28" s="140"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D30" s="132"/>
       <c r="E30" s="140"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E31" s="132"/>
+      <c r="J31" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" s="209"/>
+    </row>
+    <row r="32" spans="1:11" s="206" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="205"/>
+      <c r="B32" s="205"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="J32" s="207" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="208">
+        <v>24592766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="206" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="205"/>
+      <c r="B33" s="205"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="205"/>
+      <c r="J33" s="207" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="208">
+        <v>19420080</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="J34" s="207" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="208">
+        <f>K32-K33</f>
+        <v>5172686</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A15:E15"/>
+    <mergeCell ref="J31:K31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7171,61 +7293,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
       <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="182" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="180" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="181" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="183" t="s">
+      <c r="A3" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="D3" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="185" t="s">
+      <c r="E3" s="188" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="187" t="s">
+      <c r="F3" s="190" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="190" t="s">
         <v>158</v>
       </c>
       <c r="H3" s="145" t="s">
@@ -7245,13 +7367,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="182"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
       <c r="H4" s="145"/>
       <c r="I4" s="145"/>
       <c r="J4" s="145"/>
@@ -7317,7 +7439,7 @@
         <f>H7*F7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="202">
+      <c r="J7" s="169">
         <v>0.8</v>
       </c>
       <c r="K7" s="80">
@@ -7543,7 +7665,7 @@
       </c>
       <c r="K14" s="86"/>
       <c r="L14" s="86"/>
-      <c r="M14" s="171"/>
+      <c r="M14" s="174"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -7582,7 +7704,7 @@
         <f>K15+I15</f>
         <v>37050</v>
       </c>
-      <c r="M15" s="178"/>
+      <c r="M15" s="181"/>
     </row>
     <row r="16" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
@@ -7623,7 +7745,7 @@
         <f>K16+I16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="178"/>
+      <c r="M16" s="181"/>
     </row>
     <row r="17" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -7664,7 +7786,7 @@
         <f>K17+I17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="178"/>
+      <c r="M17" s="181"/>
     </row>
     <row r="18" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
@@ -7690,7 +7812,7 @@
       </c>
       <c r="K18" s="86"/>
       <c r="L18" s="86"/>
-      <c r="M18" s="178"/>
+      <c r="M18" s="181"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
@@ -7729,7 +7851,7 @@
         <f>K19+I19</f>
         <v>84550</v>
       </c>
-      <c r="M19" s="178"/>
+      <c r="M19" s="181"/>
     </row>
     <row r="20" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
@@ -7770,7 +7892,7 @@
         <f>K20+I20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="178"/>
+      <c r="M20" s="181"/>
     </row>
     <row r="21" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
@@ -7811,7 +7933,7 @@
         <f>K21+I21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="178"/>
+      <c r="M21" s="181"/>
     </row>
     <row r="22" spans="1:14" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
@@ -7837,7 +7959,7 @@
       </c>
       <c r="K22" s="86"/>
       <c r="L22" s="86"/>
-      <c r="M22" s="171"/>
+      <c r="M22" s="174"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
@@ -7878,7 +8000,7 @@
         <f>K23+I23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="172"/>
+      <c r="M23" s="175"/>
     </row>
     <row r="24" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
@@ -7946,7 +8068,7 @@
       <c r="K25" s="86"/>
       <c r="L25" s="86"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="173"/>
+      <c r="N25" s="176"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
@@ -7988,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="26"/>
-      <c r="N26" s="174"/>
+      <c r="N26" s="177"/>
     </row>
     <row r="27" spans="1:14" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
@@ -8030,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="24"/>
-      <c r="N27" s="174"/>
+      <c r="N27" s="177"/>
     </row>
     <row r="28" spans="1:14" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
@@ -8074,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="20"/>
-      <c r="N28" s="174"/>
+      <c r="N28" s="177"/>
     </row>
     <row r="29" spans="1:14" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47">
@@ -8101,7 +8223,7 @@
       <c r="K29" s="80"/>
       <c r="L29" s="80"/>
       <c r="M29" s="25"/>
-      <c r="N29" s="175"/>
+      <c r="N29" s="178"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
@@ -8221,7 +8343,7 @@
         <v>521740</v>
       </c>
       <c r="M32" s="23"/>
-      <c r="N32" s="173"/>
+      <c r="N32" s="176"/>
     </row>
     <row r="33" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
@@ -8261,7 +8383,7 @@
         <v>270845</v>
       </c>
       <c r="M33" s="21"/>
-      <c r="N33" s="175"/>
+      <c r="N33" s="178"/>
     </row>
     <row r="34" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
@@ -9632,39 +9754,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
       <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="182" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="180" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
       <c r="M2" s="18"/>
       <c r="O2" s="141"/>
       <c r="P2" s="141"/>
@@ -9774,7 +9896,7 @@
         <f>H6*F6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="202">
+      <c r="J6" s="169">
         <v>0.8</v>
       </c>
       <c r="K6" s="80">
@@ -9984,7 +10106,7 @@
       </c>
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
-      <c r="M13" s="171"/>
+      <c r="M13" s="174"/>
     </row>
     <row r="14" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
@@ -10023,7 +10145,7 @@
         <f>K14+I14</f>
         <v>37050</v>
       </c>
-      <c r="M14" s="178"/>
+      <c r="M14" s="181"/>
     </row>
     <row r="15" spans="1:20" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -10064,7 +10186,7 @@
         <f>K15+I15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="178"/>
+      <c r="M15" s="181"/>
     </row>
     <row r="16" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
@@ -10105,7 +10227,7 @@
         <f>K16+I16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="178"/>
+      <c r="M16" s="181"/>
     </row>
     <row r="17" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -10127,7 +10249,7 @@
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
-      <c r="M17" s="178"/>
+      <c r="M17" s="181"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
@@ -10166,7 +10288,7 @@
         <f>K18+I18</f>
         <v>84550</v>
       </c>
-      <c r="M18" s="178"/>
+      <c r="M18" s="181"/>
     </row>
     <row r="19" spans="1:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
@@ -10207,7 +10329,7 @@
         <f>K19+I19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="178"/>
+      <c r="M19" s="181"/>
     </row>
     <row r="20" spans="1:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
@@ -10248,7 +10370,7 @@
         <f>K20+I20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="178"/>
+      <c r="M20" s="181"/>
     </row>
     <row r="21" spans="1:13" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47">
@@ -10270,7 +10392,7 @@
       </c>
       <c r="K21" s="93"/>
       <c r="L21" s="93"/>
-      <c r="M21" s="171"/>
+      <c r="M21" s="174"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
@@ -10311,7 +10433,7 @@
         <f>K22+I22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="172"/>
+      <c r="M22" s="175"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
@@ -12002,14 +12124,14 @@
       <c r="G69" s="78">
         <v>14250</v>
       </c>
-      <c r="H69" s="203">
+      <c r="H69" s="169">
         <v>0.5</v>
       </c>
       <c r="I69" s="80">
         <f>H69*F69</f>
         <v>4750</v>
       </c>
-      <c r="J69" s="203">
+      <c r="J69" s="169">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -12100,36 +12222,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="180" t="s">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
     </row>
     <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
@@ -12167,7 +12289,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="198" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -12197,7 +12319,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="196"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="73" t="s">
         <v>122</v>
       </c>
@@ -12212,7 +12334,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="196"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
@@ -12227,7 +12349,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="196"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
@@ -12264,7 +12386,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="196"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="11" t="s">
         <v>53</v>
       </c>
@@ -12288,7 +12410,7 @@
         <v>83540.625</v>
       </c>
       <c r="I8" s="154">
-        <f t="shared" ref="I8:I21" si="3">G8</f>
+        <f t="shared" ref="I8:I20" si="3">G8</f>
         <v>23.45</v>
       </c>
       <c r="J8" s="66">
@@ -12301,7 +12423,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="196"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -12338,7 +12460,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="196"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -12375,7 +12497,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="196"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
@@ -12412,7 +12534,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="196"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -12449,7 +12571,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="196"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
@@ -12650,14 +12772,14 @@
       <c r="F18" s="80">
         <v>9500</v>
       </c>
-      <c r="G18" s="204">
+      <c r="G18" s="170">
         <v>0.5</v>
       </c>
       <c r="H18" s="66">
         <f t="shared" si="0"/>
         <v>4750</v>
       </c>
-      <c r="I18" s="204">
+      <c r="I18" s="170">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -12687,14 +12809,14 @@
       <c r="F19" s="80">
         <v>19000</v>
       </c>
-      <c r="G19" s="204">
+      <c r="G19" s="170">
         <v>0.8</v>
       </c>
       <c r="H19" s="66">
         <f t="shared" si="0"/>
         <v>15200</v>
       </c>
-      <c r="I19" s="204">
+      <c r="I19" s="170">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
@@ -12768,7 +12890,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="205">
+      <c r="I21" s="171">
         <v>0.8</v>
       </c>
       <c r="J21" s="66">
@@ -12811,30 +12933,30 @@
       <c r="P22" s="141"/>
     </row>
     <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="197"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="198"/>
+      <c r="A23" s="200"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="201"/>
     </row>
     <row r="24" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="190"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="191"/>
+      <c r="A24" s="193"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="193"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12858,7 +12980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C8B3FC-4370-4A51-A5E5-5724AC39AA1F}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -12880,36 +13002,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="180" t="s">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
@@ -12947,7 +13069,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="198" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -12977,7 +13099,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="196"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="73" t="s">
         <v>122</v>
       </c>
@@ -12992,7 +13114,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="196"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
@@ -13007,7 +13129,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="196"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
@@ -13044,7 +13166,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="196"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="11" t="s">
         <v>53</v>
       </c>
@@ -13081,7 +13203,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="196"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -13118,7 +13240,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="196"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -13155,7 +13277,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="196"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
@@ -13192,7 +13314,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="196"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -13229,7 +13351,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="196"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
@@ -13637,30 +13759,30 @@
       <c r="P23" s="141"/>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="197"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="197"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="198"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="201"/>
     </row>
     <row r="25" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="190"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="191"/>
-      <c r="K25" s="191"/>
+      <c r="A25" s="193"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13695,24 +13817,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="202" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="200" t="s">
+      <c r="C2" s="204"/>
+      <c r="D2" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="201"/>
+      <c r="E2" s="204"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -13978,24 +14100,24 @@
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="199" t="s">
+      <c r="A22" s="202" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="199"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="202"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
-      <c r="B23" s="200" t="s">
+      <c r="B23" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="201"/>
-      <c r="D23" s="200" t="s">
+      <c r="C23" s="204"/>
+      <c r="D23" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="201"/>
+      <c r="E23" s="204"/>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
@@ -14211,24 +14333,24 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A37" s="199" t="s">
+      <c r="A37" s="202" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="199"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="199"/>
+      <c r="B37" s="202"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="199" t="s">
+      <c r="B38" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="199"/>
-      <c r="D38" s="199" t="s">
+      <c r="C38" s="202"/>
+      <c r="D38" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="199"/>
+      <c r="E38" s="202"/>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">

--- a/Projects 2023/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bill No 1 - BAH 2nd & 23rd Floor (Verified).xlsx
+++ b/Projects 2023/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bill No 1 - BAH 2nd & 23rd Floor (Verified).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035E900A-04E0-4305-8EE2-5B1729398A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62769B88-6CCE-4E57-A339-C69771372DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4567,105 +4567,6 @@
     <xf numFmtId="167" fontId="1" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4676,8 +4577,107 @@
     <xf numFmtId="166" fontId="98" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6951,10 +6951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCF929F-FB20-4935-9641-63EA9CE81B38}">
-  <dimension ref="A4:K34"/>
+  <dimension ref="A4:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7010,10 +7010,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="172"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="117"/>
       <c r="D13" s="117"/>
       <c r="E13" s="118"/>
@@ -7023,13 +7023,13 @@
       <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:5" s="113" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
     </row>
     <row r="16" spans="1:5" s="113" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120"/>
@@ -7203,44 +7203,55 @@
     </row>
     <row r="31" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E31" s="132"/>
-      <c r="J31" s="209" t="s">
+      <c r="J31" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="K31" s="209"/>
-    </row>
-    <row r="32" spans="1:11" s="206" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="205"/>
-      <c r="B32" s="205"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="205"/>
-      <c r="J32" s="207" t="s">
+      <c r="K31" s="178"/>
+    </row>
+    <row r="32" spans="1:11" s="173" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="172"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="J32" s="174" t="s">
         <v>171</v>
       </c>
-      <c r="K32" s="208">
+      <c r="K32" s="175">
         <v>24592766</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="206" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="205"/>
-      <c r="B33" s="205"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="205"/>
-      <c r="E33" s="205"/>
-      <c r="J33" s="207" t="s">
+    <row r="33" spans="1:11" s="173" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="172"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="J33" s="174" t="s">
         <v>169</v>
       </c>
-      <c r="K33" s="208">
+      <c r="K33" s="175">
         <v>19420080</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="J34" s="207" t="s">
+      <c r="J34" s="174" t="s">
         <v>170</v>
       </c>
-      <c r="K34" s="208">
+      <c r="K34" s="175">
         <f>K32-K33</f>
         <v>5172686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="K35" s="175">
+        <v>1075700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="K36" s="175">
+        <f>K34-K35</f>
+        <v>4096986</v>
       </c>
     </row>
   </sheetData>
@@ -7293,61 +7304,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
       <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="187" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="183" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="188" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="186" t="s">
+      <c r="A3" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="188" t="s">
+      <c r="E3" s="193" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="190" t="s">
+      <c r="F3" s="195" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="190" t="s">
+      <c r="G3" s="195" t="s">
         <v>158</v>
       </c>
       <c r="H3" s="145" t="s">
@@ -7367,13 +7378,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="185"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
       <c r="H4" s="145"/>
       <c r="I4" s="145"/>
       <c r="J4" s="145"/>
@@ -7665,7 +7676,7 @@
       </c>
       <c r="K14" s="86"/>
       <c r="L14" s="86"/>
-      <c r="M14" s="174"/>
+      <c r="M14" s="179"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -7704,7 +7715,7 @@
         <f>K15+I15</f>
         <v>37050</v>
       </c>
-      <c r="M15" s="181"/>
+      <c r="M15" s="186"/>
     </row>
     <row r="16" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
@@ -7745,7 +7756,7 @@
         <f>K16+I16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="181"/>
+      <c r="M16" s="186"/>
     </row>
     <row r="17" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -7786,7 +7797,7 @@
         <f>K17+I17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="181"/>
+      <c r="M17" s="186"/>
     </row>
     <row r="18" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
@@ -7812,7 +7823,7 @@
       </c>
       <c r="K18" s="86"/>
       <c r="L18" s="86"/>
-      <c r="M18" s="181"/>
+      <c r="M18" s="186"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
@@ -7851,7 +7862,7 @@
         <f>K19+I19</f>
         <v>84550</v>
       </c>
-      <c r="M19" s="181"/>
+      <c r="M19" s="186"/>
     </row>
     <row r="20" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
@@ -7892,7 +7903,7 @@
         <f>K20+I20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="181"/>
+      <c r="M20" s="186"/>
     </row>
     <row r="21" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
@@ -7933,7 +7944,7 @@
         <f>K21+I21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="181"/>
+      <c r="M21" s="186"/>
     </row>
     <row r="22" spans="1:14" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
@@ -7959,7 +7970,7 @@
       </c>
       <c r="K22" s="86"/>
       <c r="L22" s="86"/>
-      <c r="M22" s="174"/>
+      <c r="M22" s="179"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
@@ -8000,7 +8011,7 @@
         <f>K23+I23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="175"/>
+      <c r="M23" s="180"/>
     </row>
     <row r="24" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
@@ -8068,7 +8079,7 @@
       <c r="K25" s="86"/>
       <c r="L25" s="86"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="176"/>
+      <c r="N25" s="181"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
@@ -8110,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="26"/>
-      <c r="N26" s="177"/>
+      <c r="N26" s="182"/>
     </row>
     <row r="27" spans="1:14" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
@@ -8152,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="24"/>
-      <c r="N27" s="177"/>
+      <c r="N27" s="182"/>
     </row>
     <row r="28" spans="1:14" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
@@ -8196,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="20"/>
-      <c r="N28" s="177"/>
+      <c r="N28" s="182"/>
     </row>
     <row r="29" spans="1:14" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47">
@@ -8223,7 +8234,7 @@
       <c r="K29" s="80"/>
       <c r="L29" s="80"/>
       <c r="M29" s="25"/>
-      <c r="N29" s="178"/>
+      <c r="N29" s="183"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
@@ -8343,7 +8354,7 @@
         <v>521740</v>
       </c>
       <c r="M32" s="23"/>
-      <c r="N32" s="176"/>
+      <c r="N32" s="181"/>
     </row>
     <row r="33" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
@@ -8383,7 +8394,7 @@
         <v>270845</v>
       </c>
       <c r="M33" s="21"/>
-      <c r="N33" s="178"/>
+      <c r="N33" s="183"/>
     </row>
     <row r="34" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
@@ -9754,39 +9765,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
       <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="187" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="183" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="188" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
       <c r="M2" s="18"/>
       <c r="O2" s="141"/>
       <c r="P2" s="141"/>
@@ -10106,7 +10117,7 @@
       </c>
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
-      <c r="M13" s="174"/>
+      <c r="M13" s="179"/>
     </row>
     <row r="14" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
@@ -10145,7 +10156,7 @@
         <f>K14+I14</f>
         <v>37050</v>
       </c>
-      <c r="M14" s="181"/>
+      <c r="M14" s="186"/>
     </row>
     <row r="15" spans="1:20" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -10186,7 +10197,7 @@
         <f>K15+I15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="181"/>
+      <c r="M15" s="186"/>
     </row>
     <row r="16" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
@@ -10227,7 +10238,7 @@
         <f>K16+I16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="181"/>
+      <c r="M16" s="186"/>
     </row>
     <row r="17" spans="1:13" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -10249,7 +10260,7 @@
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
-      <c r="M17" s="181"/>
+      <c r="M17" s="186"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
@@ -10288,7 +10299,7 @@
         <f>K18+I18</f>
         <v>84550</v>
       </c>
-      <c r="M18" s="181"/>
+      <c r="M18" s="186"/>
     </row>
     <row r="19" spans="1:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
@@ -10329,7 +10340,7 @@
         <f>K19+I19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="181"/>
+      <c r="M19" s="186"/>
     </row>
     <row r="20" spans="1:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
@@ -10370,7 +10381,7 @@
         <f>K20+I20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="181"/>
+      <c r="M20" s="186"/>
     </row>
     <row r="21" spans="1:13" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47">
@@ -10392,7 +10403,7 @@
       </c>
       <c r="K21" s="93"/>
       <c r="L21" s="93"/>
-      <c r="M21" s="174"/>
+      <c r="M21" s="179"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
@@ -10433,7 +10444,7 @@
         <f>K22+I22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="175"/>
+      <c r="M22" s="180"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
@@ -12222,36 +12233,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="201" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="183" t="s">
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="188" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
@@ -12289,7 +12300,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="203" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -12319,7 +12330,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="199"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="73" t="s">
         <v>122</v>
       </c>
@@ -12334,7 +12345,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="199"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
@@ -12349,7 +12360,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="199"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
@@ -12386,7 +12397,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="199"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="11" t="s">
         <v>53</v>
       </c>
@@ -12423,7 +12434,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="199"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -12460,7 +12471,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="199"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -12497,7 +12508,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="199"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
@@ -12534,7 +12545,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="199"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -12571,7 +12582,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="199"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
@@ -12933,30 +12944,30 @@
       <c r="P22" s="141"/>
     </row>
     <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="200"/>
-      <c r="B23" s="200"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="201"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="201"/>
+      <c r="A23" s="205"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="206"/>
     </row>
     <row r="24" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="193"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="194"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13002,36 +13013,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="183" t="s">
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="188" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
@@ -13069,7 +13080,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="203" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -13099,7 +13110,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="199"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="73" t="s">
         <v>122</v>
       </c>
@@ -13114,7 +13125,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="199"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
@@ -13129,7 +13140,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="199"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
@@ -13166,7 +13177,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="199"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="11" t="s">
         <v>53</v>
       </c>
@@ -13203,7 +13214,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="199"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -13240,7 +13251,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="199"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -13277,7 +13288,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="199"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
@@ -13314,7 +13325,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="199"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -13351,7 +13362,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="199"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
@@ -13759,30 +13770,30 @@
       <c r="P23" s="141"/>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="200"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="201"/>
+      <c r="A24" s="205"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="206"/>
     </row>
     <row r="25" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="193"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="194"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13817,24 +13828,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="203" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="204"/>
+      <c r="E2" s="209"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -14100,24 +14111,24 @@
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="202" t="s">
+      <c r="A22" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
-      <c r="B23" s="203" t="s">
+      <c r="B23" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="204"/>
-      <c r="D23" s="203" t="s">
+      <c r="C23" s="209"/>
+      <c r="D23" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="204"/>
+      <c r="E23" s="209"/>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
@@ -14333,24 +14344,24 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A37" s="202" t="s">
+      <c r="A37" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
+      <c r="B37" s="207"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="202" t="s">
+      <c r="B38" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202" t="s">
+      <c r="C38" s="207"/>
+      <c r="D38" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="202"/>
+      <c r="E38" s="207"/>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
